--- a/VT_REG1_PRI_V12.xlsx
+++ b/VT_REG1_PRI_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4ED0BC2-0B16-4B09-ADA4-39EA295AD89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD12B5F-E7EE-4A71-9B9C-666A4012B1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -32,12 +32,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,14 +48,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -827,14 +830,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -974,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1298,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1361,7 +1364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1609,14 +1612,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1730,7 +1733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1756,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1882,7 +1885,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1915,7 +1918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="2" shapeId="0">
+    <comment ref="G8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1962,7 +1965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="2" shapeId="0">
+    <comment ref="O8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2055,7 +2058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="1" shapeId="0">
+    <comment ref="P8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2080,7 +2083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2143,7 +2146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="2" shapeId="0">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -2391,14 +2394,14 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2512,7 +2515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2538,7 +2541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2611,7 +2614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2664,7 +2667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2697,7 +2700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="2" shapeId="0">
+    <comment ref="F8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2744,7 +2747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="2" shapeId="0">
+    <comment ref="N8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2837,7 +2840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="1" shapeId="0">
+    <comment ref="O8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2862,7 +2865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="2" shapeId="0">
+    <comment ref="P8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2925,7 +2928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="2" shapeId="0">
+    <comment ref="H9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3173,14 +3176,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3294,7 +3297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3320,7 +3323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3393,7 +3396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -3446,7 +3449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -3479,7 +3482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="2" shapeId="0">
+    <comment ref="F11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -3526,7 +3529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="2" shapeId="0">
+    <comment ref="N11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -3619,7 +3622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="1" shapeId="0">
+    <comment ref="O11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3644,7 +3647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="2" shapeId="0">
+    <comment ref="P11" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -3707,7 +3710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="2" shapeId="0">
+    <comment ref="H12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -3955,14 +3958,14 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4076,7 +4079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4175,7 +4178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -4228,7 +4231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -4261,7 +4264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="2" shapeId="0">
+    <comment ref="F14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4308,7 +4311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N14" authorId="2" shapeId="0">
+    <comment ref="N14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4401,7 +4404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="1" shapeId="0">
+    <comment ref="O14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4426,7 +4429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="2" shapeId="0">
+    <comment ref="P14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4489,7 +4492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="2" shapeId="0">
+    <comment ref="H15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -4737,14 +4740,14 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -4858,7 +4861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4884,7 +4887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -4957,7 +4960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0">
+    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5010,7 +5013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5043,7 +5046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="2" shapeId="0">
+    <comment ref="F12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5090,7 +5093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N12" authorId="2" shapeId="0">
+    <comment ref="N12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5183,7 +5186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="1" shapeId="0">
+    <comment ref="O12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5208,7 +5211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="2" shapeId="0">
+    <comment ref="P12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5271,7 +5274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="2" shapeId="0">
+    <comment ref="H13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -5519,14 +5522,14 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -5640,7 +5643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -5666,7 +5669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -5739,7 +5742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -5792,7 +5795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5825,7 +5828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="2" shapeId="0">
+    <comment ref="P9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5918,7 +5921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="1" shapeId="0">
+    <comment ref="Q9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5943,7 +5946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6006,7 +6009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -6254,14 +6257,14 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -6375,7 +6378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="1" shapeId="0">
+    <comment ref="G10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -6401,7 +6404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="2" shapeId="0">
+    <comment ref="H10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -6474,7 +6477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="2" shapeId="0">
+    <comment ref="I10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -6527,7 +6530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="2" shapeId="0">
+    <comment ref="J10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6565,7 +6568,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="161">
   <si>
     <t>CommName</t>
   </si>
@@ -6918,9 +6921,6 @@
     <t>Linked to the Energy Balance</t>
   </si>
   <si>
-    <t>Reference Energy System (from VEDA-FE Go-To RES feature)</t>
-  </si>
-  <si>
     <t>Conversion (Refinery)</t>
   </si>
   <si>
@@ -7022,17 +7022,47 @@
   <si>
     <t>Total CO2</t>
   </si>
+  <si>
+    <t>Reference Energy System</t>
+  </si>
+  <si>
+    <t>Objective Function by Scenario</t>
+  </si>
+  <si>
+    <t>_SysCost Result table</t>
+  </si>
+  <si>
+    <t>Run names:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoS_012e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7062,32 +7092,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -7582,26 +7586,26 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
@@ -7620,19 +7624,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7641,19 +7645,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="5" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="6" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7666,28 +7670,28 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="19" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -7699,7 +7703,7 @@
     <xf numFmtId="2" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7714,27 +7718,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7746,40 +7750,40 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="13" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="14" borderId="0" xfId="18" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7787,37 +7791,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="25" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7826,24 +7830,24 @@
     <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="8"/>
+    <cellStyle name="Migliaia_tab emissioni" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="11"/>
-    <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="13"/>
-    <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 9 2" xfId="15"/>
-    <cellStyle name="Normale_B2020" xfId="16"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 9 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normale_B2020" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Percent" xfId="17" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="18"/>
-    <cellStyle name="Percent 3" xfId="19"/>
-    <cellStyle name="Percent 4" xfId="20"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="21"/>
+    <cellStyle name="Percent 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -8226,13 +8230,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8300,13 +8304,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8374,13 +8378,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8448,13 +8452,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8522,13 +8526,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8596,13 +8600,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8670,13 +8674,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8744,13 +8748,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8818,13 +8822,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8892,14 +8896,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8966,13 +8970,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9040,13 +9044,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9114,13 +9118,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9188,13 +9192,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9262,13 +9266,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9336,13 +9340,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9410,13 +9414,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9476,6 +9480,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>434494</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75BB6EA9-3B88-43D1-8149-DE55B7F54542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3111500" y="158750"/>
+          <a:ext cx="3847619" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -11007,7 +11055,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5">
+            <v>2834.4252999999999</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
@@ -11361,13 +11415,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
@@ -11444,16 +11498,16 @@
         <v>47</v>
       </c>
       <c r="O2" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="Q2" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="R2" s="73" t="s">
         <v>126</v>
-      </c>
-      <c r="R2" s="73" t="s">
-        <v>127</v>
       </c>
       <c r="S2" s="73" t="s">
         <v>48</v>
@@ -11478,7 +11532,7 @@
     </row>
     <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C3" s="85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="82" t="s">
         <v>51</v>
@@ -11487,7 +11541,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="83" t="s">
         <v>111</v>
@@ -11514,16 +11568,16 @@
         <v>53</v>
       </c>
       <c r="O3" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="Q3" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="R3" s="83" t="s">
         <v>130</v>
-      </c>
-      <c r="R3" s="83" t="s">
-        <v>131</v>
       </c>
       <c r="S3" s="83" t="s">
         <v>54</v>
@@ -11818,10 +11872,10 @@
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="81">
         <f>SUM(D5:D7)</f>
@@ -11894,7 +11948,7 @@
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="86"/>
       <c r="C9" s="87" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="88"/>
       <c r="E9" s="88"/>
@@ -11918,10 +11972,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="90" t="s">
         <v>134</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>135</v>
       </c>
       <c r="D10" s="91">
         <f>[2]EB1!D10</f>
@@ -12005,7 +12059,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" s="91">
         <f>[2]EB1!D11</f>
@@ -12086,10 +12140,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="93" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>138</v>
       </c>
       <c r="D12" s="91">
         <f>[2]EB1!D12</f>
@@ -12173,7 +12227,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="91">
         <f>[2]EB1!D13</f>
@@ -12255,7 +12309,7 @@
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
       <c r="C14" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="94">
         <f>SUM(D10:D13)</f>
@@ -12411,7 +12465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12980,7 +13034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B4:S12"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -12998,7 +13052,7 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -13012,27 +13066,27 @@
         <v>0</v>
       </c>
       <c r="C5" s="105" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="E5" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="105" t="s">
+      <c r="F5" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="G5" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="H5" s="105" t="s">
         <v>147</v>
-      </c>
-      <c r="H5" s="105" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="104">
         <v>1</v>
@@ -13137,7 +13191,7 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="112"/>
       <c r="D12" s="111" t="str">
@@ -13145,7 +13199,7 @@
         <v>TOTCO2</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="111" t="str">
         <f>'EB1'!AA2</f>
@@ -13164,11 +13218,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:R62"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13182,65 +13236,110 @@
     <col min="18" max="18" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="D23" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="72"/>
+    </row>
+    <row r="24" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="M24" s="63" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="116" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="72"/>
-    </row>
-    <row r="6" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="63" t="s">
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M25" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="M6" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="M7" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-    </row>
-    <row r="44" spans="14:18" x14ac:dyDescent="0.2">
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+    </row>
+    <row r="62" spans="14:18" x14ac:dyDescent="0.2">
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:Q5"/>
+    <mergeCell ref="D23:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13249,7 +13348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13977,7 +14076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14711,7 +14810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15378,7 +15477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:Q38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15983,7 +16082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:Q40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -16718,7 +16817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -17804,7 +17903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:V22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
